--- a/fhir/ig/urgencia/StructureDefinition-ServicioDeSalud.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-ServicioDeSalud.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -347,7 +347,7 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
+    <t>extensible</t>
   </si>
   <si>
     <t>https://interoperabilidad.minsal.cl/fhir/ig/urgencia/ValueSet/VSServicioDeSalud</t>
